--- a/StructureDefinition-hiv-encounter.xlsx
+++ b/StructureDefinition-hiv-encounter.xlsx
@@ -6067,7 +6067,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>42</v>
@@ -8600,10 +8600,10 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>43</v>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>50</v>
